--- a/data/Data4.xlsx
+++ b/data/Data4.xlsx
@@ -8,21 +8,46 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>len</t>
   </si>
   <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
     <t>supp</t>
-  </si>
-  <si>
-    <t>dose</t>
   </si>
   <si>
     <t>VC</t>
@@ -383,230 +408,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>11.18666666666667</v>
+      </c>
+      <c r="C3">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5.402759436048354</v>
+      </c>
+      <c r="C4">
+        <v>0.2439750182371333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4.2</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6.7</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>11.2</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>15.85</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>22.5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>4.2</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>11.5</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>7.3</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>5.8</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>6.4</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>11.2</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>11.2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5.2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>11.2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>5.2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>16.5</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
         <v>16.5</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
         <v>15.2</v>
       </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
         <v>17.3</v>
       </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
         <v>22.5</v>
       </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
     </row>
